--- a/medicine/Enfance/Alison_Uttley/Alison_Uttley.xlsx
+++ b/medicine/Enfance/Alison_Uttley/Alison_Uttley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alison Uttley, née Alice Jane Taylor le 17 décembre 1884 à Cromford et morte le 7 mai 1976 à Bowson, est une écrivaine britannique, auteure de plus de cent ouvrages dont de nombreux livres pour enfants.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Cromford, elle a grandi dans les régions rurales du Derbyshire et a étudié à l'école d'Holloway puis à la Lady Manners School (en) de Bakewell où montrant une grande aptitude pour les sciences, elle obtient une bourse d'études à l'Université de Manchester pour se spécialiser en physique. En 1906, elle est la deuxième femme diplômée avec mention de l'Université.
-Après avoir quitté l'université, elle fait une formation à Cambridge pour devenir enseignante et, en 1908, devient professeur de physique à la Fulham Secondary School for Girls dans l'ouest de Londres. Trois ans plus tard, elle épouse James Arthur Uttley. Le couple a un fils, John Corin Taylor[2].
-James Uttley se suicide par noyade en 1930, son état de santé ayant été affecté par son service lors de la Première Guerre mondiale et John Corin Taylor conduit délibérément sa voiture du haut d'une falaise en 1978[3].
+Après avoir quitté l'université, elle fait une formation à Cambridge pour devenir enseignante et, en 1908, devient professeur de physique à la Fulham Secondary School for Girls dans l'ouest de Londres. Trois ans plus tard, elle épouse James Arthur Uttley. Le couple a un fils, John Corin Taylor.
+James Uttley se suicide par noyade en 1930, son état de santé ayant été affecté par son service lors de la Première Guerre mondiale et John Corin Taylor conduit délibérément sa voiture du haut d'une falaise en 1978.
 Alison Uttley commence à écrire après la mort de son mari pour pouvoir élever son fils. Ses premiers livres sont une série de contes sur les animaux dont le plus célèbre reste Little Grey Rabbit (en).
 Son roman le plus connu A Traveller in Time parait en 1939. Mêlant rêve et réalité historique, il raconte l'histoire d'une jeune fille du XXe siècle qui est transportée au XVIe siècle et est impliquée dans un complot visant à libérer Marie Stuart.
 En janvier 1978, la BBC a diffusé une série en cinq parties, A Traveller in Time avec Sophie Thompson et Simon Gipps-Kent (en), basée sur la vie d'Alison Uttley.
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Moonshine and Magic (1932)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Moonshine and Magic (1932)
 The Adventures of Peter and Judy in Bunnyland (1935)
 Mustard, Pepper and Salt (1938)
 High Meadows (1938)
@@ -561,9 +580,43 @@
 The Washerwoman’s Child: A Play on the Life and Stories of Hans Christian Andersen (1946)
 John at the Old Farm (1960)
 The Mouse, the Rabbit and the Little White Hen (1966)
-Enchantment (1966)
-Recueils de nouvelles
-Candlelight Tales (1936)
+Enchantment (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Candlelight Tales (1936)
 Nine Starlight Tales (1942)
 Ten Candlelight Tales (sélections de Candlelight Tales) (1942)
 The Spice Woman’s Basket and Other Tales (1944)
@@ -573,14 +626,82 @@
 The Cobbler’s Shop and Other Tales (1950)
 Magic in My Pocket: A Selection of Tales (1957)
 The Little Knife Who Did All the Work: Twelve Tales of Magic (1962)
-Lavender Shoes: Eight Tales of Enchantment (1970)
-Anthologies
-Fairy Tales (1975)
+Lavender Shoes: Eight Tales of Enchantment (1970)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anthologies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fairy Tales (1975)
 Stories for Christmas (1977)
 From Spring to Spring: Stories of the Four Seasons (1978)
-Foxglove Tales (1984)
-Mémoires et essais
-The Country Child (1931)
+Foxglove Tales (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mémoires et essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Country Child (1931)
 Ambush of Young Days (1937)
 The Farm on the Hill (1941)
 Country Hoard (1943)
@@ -599,14 +720,116 @@
 The Button-Box and Other Essays (1968)
 A Ten O’Clock Scholar and Other Essays (1970)
 Secret Places and Other Essays (1972)
-Country World: Memoirs of Childhood (1984)
-Autres
-Buckinghamshire (1950)
-Recipes From an Old Farmhouse (1966)
-Rédactrice
-In Praise of Country Life: An Anthology (1949)
-Série des Sam Pig
-Tales of the Four Pigs and Brock the Badger (1939)
+Country World: Memoirs of Childhood (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Buckinghamshire (1950)
+Recipes From an Old Farmhouse (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rédactrice</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>In Praise of Country Life: An Anthology (1949)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série des Sam Pig</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tales of the Four Pigs and Brock the Badger (1939)
 The Adventures of Sam Pig (1940)
 Sam Pig Goes to Market (1941)
 Six Tales of Brock the Badger (1941)
@@ -618,15 +841,83 @@
 Yours Ever, Sam Pig (1951)
 Sam Pig and the Singing Gate (1955)
 Sam Pig Goes to the Seaside (1960)
-The Sam Pig Storybook (1965)
-Série des Tim Rabbit
-The Adventures of no Ordinary Rabbit (1937)
+The Sam Pig Storybook (1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série des Tim Rabbit</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Adventures of no Ordinary Rabbit (1937)
 Ten Tales of Tim Rabbit (1941)
 Adventures of Tim Rabbit (1945)
 Tim Rabbit and Company (1959)
-Tim Rabbit’s Dozen (1964)
-Série des Little Brown Mouse
-Snug and Serena Meet a Queen (1950)
+Tim Rabbit’s Dozen (1964)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série des Little Brown Mouse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Snug and Serena Meet a Queen (1950)
 Snug and Serena Pick Cowslips (1950)
 Going to the Fair (1951)
 Toad’s Castle (1951)
@@ -640,15 +931,83 @@
 Mr Stoat Walks In (1957)
 Snug and Serena Count Twelve (1959)
 Snug and Serena Go to Town (1961)
-The Brown Mouse Book: Magical Tales of Two Little Mice (1971)
-série des Little Red Fox
-Little Red Fox and the Wicked Uncle (1954)
+The Brown Mouse Book: Magical Tales of Two Little Mice (1971)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>série des Little Red Fox</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Little Red Fox and the Wicked Uncle (1954)
 Little Red Fox and Cinderella (1956)
 Little Red Fox and the Magic Moon (1958)
 Little Red Fox and the Unicorn (1962)
-The Little Red Fox and the Big Tree (1968)
-série des Grey Rabbit
-The Squirrel, the Hare and the Little Grey Rabbit (1929)
+The Little Red Fox and the Big Tree (1968)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alison_Uttley</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres[4]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>série des Grey Rabbit</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>The Squirrel, the Hare and the Little Grey Rabbit (1929)
 How Little Grey Rabbit Got Back Her Tail (1930)
 The Great Adventure of Hare (1931)
 The Story of Fuzzypeg the Hedgehog (1932)
